--- a/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>Serie</t>
   </si>
@@ -1205,6 +1205,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R380"/>
+  <dimension ref="A1:R381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18064,7 +18067,7 @@
         <v>5.9</v>
       </c>
       <c r="C376">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="D376">
         <v>1.9</v>
@@ -18126,7 +18129,7 @@
         <v>3.5</v>
       </c>
       <c r="E377">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F377">
         <v>7.6</v>
@@ -18232,13 +18235,16 @@
         <v>19.5</v>
       </c>
       <c r="D379">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E379">
         <v>5</v>
       </c>
+      <c r="F379">
+        <v>10.2</v>
+      </c>
       <c r="G379">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H379">
         <v>8.800000000000001</v>
@@ -18247,7 +18253,7 @@
         <v>11.5</v>
       </c>
       <c r="J379">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K379">
         <v>6.1</v>
@@ -18265,7 +18271,7 @@
         <v>32.9</v>
       </c>
       <c r="P379">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="Q379">
         <v>5.8</v>
@@ -18278,8 +18284,70 @@
       <c r="A380" t="s">
         <v>396</v>
       </c>
+      <c r="B380">
+        <v>9.6</v>
+      </c>
+      <c r="C380">
+        <v>19.8</v>
+      </c>
+      <c r="D380">
+        <v>4.9</v>
+      </c>
+      <c r="E380">
+        <v>5.6</v>
+      </c>
+      <c r="F380">
+        <v>12.1</v>
+      </c>
+      <c r="G380">
+        <v>7.1</v>
+      </c>
+      <c r="H380">
+        <v>9</v>
+      </c>
+      <c r="I380">
+        <v>11.7</v>
+      </c>
+      <c r="J380">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K380">
+        <v>7.8</v>
+      </c>
+      <c r="L380">
+        <v>28.1</v>
+      </c>
+      <c r="M380">
+        <v>5</v>
+      </c>
+      <c r="N380">
+        <v>65.8</v>
+      </c>
+      <c r="O380">
+        <v>31.8</v>
+      </c>
+      <c r="P380">
+        <v>12.6</v>
+      </c>
+      <c r="Q380">
+        <v>5.3</v>
+      </c>
       <c r="R380">
         <v>10.3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18">
+      <c r="A381" t="s">
+        <v>397</v>
+      </c>
+      <c r="M381">
+        <v>4.9</v>
+      </c>
+      <c r="P381">
+        <v>12.8</v>
+      </c>
+      <c r="R381">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
@@ -18120,16 +18120,16 @@
         <v>393</v>
       </c>
       <c r="B377">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C377">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="D377">
         <v>3.5</v>
       </c>
       <c r="E377">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="F377">
         <v>7.6</v>
@@ -18159,7 +18159,7 @@
         <v>67.40000000000001</v>
       </c>
       <c r="O377">
-        <v>31.7</v>
+        <v>32.1</v>
       </c>
       <c r="P377">
         <v>8.5</v>
@@ -18185,7 +18185,7 @@
         <v>4.4</v>
       </c>
       <c r="E378">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="F378">
         <v>9.6</v>
@@ -18291,7 +18291,7 @@
         <v>19.8</v>
       </c>
       <c r="D380">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="E380">
         <v>5.6</v>
@@ -18309,7 +18309,7 @@
         <v>11.7</v>
       </c>
       <c r="J380">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K380">
         <v>7.8</v>
@@ -18340,11 +18340,35 @@
       <c r="A381" t="s">
         <v>397</v>
       </c>
+      <c r="B381">
+        <v>10.5</v>
+      </c>
+      <c r="C381">
+        <v>19.9</v>
+      </c>
+      <c r="D381">
+        <v>5.9</v>
+      </c>
+      <c r="E381">
+        <v>5.5</v>
+      </c>
+      <c r="H381">
+        <v>9.5</v>
+      </c>
+      <c r="J381">
+        <v>9.5</v>
+      </c>
+      <c r="K381">
+        <v>9.300000000000001</v>
+      </c>
       <c r="M381">
         <v>4.9</v>
       </c>
       <c r="P381">
         <v>12.8</v>
+      </c>
+      <c r="Q381">
+        <v>5.3</v>
       </c>
       <c r="R381">
         <v>12</v>

--- a/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>Serie</t>
   </si>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R381"/>
+  <dimension ref="A1:R382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18300,7 +18303,7 @@
         <v>12.1</v>
       </c>
       <c r="G380">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="H380">
         <v>9</v>
@@ -18324,7 +18327,7 @@
         <v>65.8</v>
       </c>
       <c r="O380">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="P380">
         <v>12.6</v>
@@ -18352,18 +18355,33 @@
       <c r="E381">
         <v>5.5</v>
       </c>
+      <c r="G381">
+        <v>7.3</v>
+      </c>
       <c r="H381">
         <v>9.5</v>
       </c>
+      <c r="I381">
+        <v>11.3</v>
+      </c>
       <c r="J381">
         <v>9.5</v>
       </c>
       <c r="K381">
         <v>9.300000000000001</v>
       </c>
+      <c r="L381">
+        <v>28.6</v>
+      </c>
       <c r="M381">
         <v>4.9</v>
       </c>
+      <c r="N381">
+        <v>63.1</v>
+      </c>
+      <c r="O381">
+        <v>30.2</v>
+      </c>
       <c r="P381">
         <v>12.8</v>
       </c>
@@ -18372,6 +18390,14 @@
       </c>
       <c r="R381">
         <v>12</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18">
+      <c r="A382" t="s">
+        <v>398</v>
+      </c>
+      <c r="R382">
+        <v>13.2</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
@@ -18182,7 +18182,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C378">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D378">
         <v>4.4</v>
@@ -18241,10 +18241,10 @@
         <v>4.5</v>
       </c>
       <c r="E379">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F379">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="G379">
         <v>6.6</v>
@@ -18297,10 +18297,10 @@
         <v>5.2</v>
       </c>
       <c r="E380">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="F380">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="G380">
         <v>7.4</v>
@@ -18353,7 +18353,10 @@
         <v>5.9</v>
       </c>
       <c r="E381">
-        <v>5.5</v>
+        <v>5.8</v>
+      </c>
+      <c r="F381">
+        <v>13.4</v>
       </c>
       <c r="G381">
         <v>7.3</v>
@@ -18383,7 +18386,7 @@
         <v>30.2</v>
       </c>
       <c r="P381">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="Q381">
         <v>5.3</v>
@@ -18395,6 +18398,30 @@
     <row r="382" spans="1:18">
       <c r="A382" t="s">
         <v>398</v>
+      </c>
+      <c r="B382">
+        <v>11.8</v>
+      </c>
+      <c r="C382">
+        <v>20.4</v>
+      </c>
+      <c r="E382">
+        <v>6.3</v>
+      </c>
+      <c r="H382">
+        <v>10.7</v>
+      </c>
+      <c r="K382">
+        <v>9.9</v>
+      </c>
+      <c r="M382">
+        <v>5.3</v>
+      </c>
+      <c r="P382">
+        <v>13.8</v>
+      </c>
+      <c r="Q382">
+        <v>6</v>
       </c>
       <c r="R382">
         <v>13.2</v>

--- a/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t>Serie</t>
   </si>
@@ -1211,6 +1211,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R382"/>
+  <dimension ref="A1:R383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18129,7 +18132,7 @@
         <v>17.5</v>
       </c>
       <c r="D377">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E377">
         <v>3.7</v>
@@ -18185,7 +18188,7 @@
         <v>19.3</v>
       </c>
       <c r="D378">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="E378">
         <v>4.9</v>
@@ -18294,7 +18297,7 @@
         <v>19.8</v>
       </c>
       <c r="D380">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="E380">
         <v>5.8</v>
@@ -18350,7 +18353,7 @@
         <v>19.9</v>
       </c>
       <c r="D381">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E381">
         <v>5.8</v>
@@ -18359,7 +18362,7 @@
         <v>13.4</v>
       </c>
       <c r="G381">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="H381">
         <v>9.5</v>
@@ -18368,7 +18371,7 @@
         <v>11.3</v>
       </c>
       <c r="J381">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="K381">
         <v>9.300000000000001</v>
@@ -18405,18 +18408,36 @@
       <c r="C382">
         <v>20.4</v>
       </c>
+      <c r="D382">
+        <v>6.7</v>
+      </c>
       <c r="E382">
         <v>6.3</v>
       </c>
+      <c r="G382">
+        <v>7.5</v>
+      </c>
       <c r="H382">
         <v>10.7</v>
       </c>
+      <c r="I382">
+        <v>12.3</v>
+      </c>
+      <c r="J382">
+        <v>10.2</v>
+      </c>
       <c r="K382">
         <v>9.9</v>
       </c>
+      <c r="L382">
+        <v>26.3</v>
+      </c>
       <c r="M382">
         <v>5.3</v>
       </c>
+      <c r="N382">
+        <v>60.5</v>
+      </c>
       <c r="P382">
         <v>13.8</v>
       </c>
@@ -18425,6 +18446,14 @@
       </c>
       <c r="R382">
         <v>13.2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18">
+      <c r="A383" t="s">
+        <v>399</v>
+      </c>
+      <c r="R383">
+        <v>13.9</v>
       </c>
     </row>
   </sheetData>
